--- a/Polarities.xlsx
+++ b/Polarities.xlsx
@@ -1,73 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethrstclairiii/Documents/NASA/code/polar-graphing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00922540-37FA-1D44-8949-7ACC736E4577}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00295CA3-33A3-1942-994A-123711965B71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratings" sheetId="1" r:id="rId1"/>
-    <sheet name="Ranges" sheetId="2" r:id="rId2"/>
+    <sheet name="Overlays" sheetId="3" r:id="rId2"/>
+    <sheet name="Ranges" sheetId="2" r:id="rId3"/>
+    <sheet name="Settings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>Idea/Example</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Reach</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Powerpoint</t>
+  </si>
+  <si>
+    <t>Keynote</t>
+  </si>
+  <si>
+    <t>Personal Blog</t>
+  </si>
+  <si>
+    <t>use_dual_labels</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
   <si>
     <t>Left</t>
   </si>
   <si>
-    <t>Idea/Example</t>
-  </si>
-  <si>
     <t>Right</t>
   </si>
   <si>
     <t>Abbv</t>
   </si>
   <si>
-    <t>Atomicity (1) - Redundancy (10)</t>
-  </si>
-  <si>
-    <t>Inefficiency (1) - Efficiency (10)</t>
-  </si>
-  <si>
-    <t>Custom (1) - Standard (10)</t>
-  </si>
-  <si>
-    <t>Ad Hoc (1) - Contingency (10)</t>
-  </si>
-  <si>
-    <t>Top down (1) - Bottom Up (10)</t>
-  </si>
-  <si>
-    <t>Manual (1) - Automatic (10)</t>
-  </si>
-  <si>
-    <t>Wasteful (1) - Resourceful (10)</t>
-  </si>
-  <si>
-    <t>Obscurity (1) - Clarity (10)</t>
-  </si>
-  <si>
-    <t>Singular (1) - Multimodal (10)</t>
-  </si>
-  <si>
-    <t>Jarring (1) - Seamless (10)</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Atomicity</t>
   </si>
   <si>
@@ -116,9 +118,6 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>By the Book</t>
-  </si>
-  <si>
     <t>Automatic</t>
   </si>
   <si>
@@ -143,12 +142,6 @@
     <t>oc</t>
   </si>
   <si>
-    <t>Firing Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redundancy reflects the number of people &lt;br&gt;from various areas available. </t>
-  </si>
-  <si>
     <t>Singular</t>
   </si>
   <si>
@@ -167,29 +160,20 @@
     <t>js</t>
   </si>
   <si>
-    <t>RFID-Tagged, Wristband Voice &lt;br&gt;Command Tech Feedback</t>
-  </si>
-  <si>
-    <t>Redundancy: Docs' info becomes more&lt;br&gt; redundant as it gets reused</t>
-  </si>
-  <si>
-    <t>Redundancy: Feedback on Docs is&lt;br&gt;logged and kept for &lt;br&gt;future use.</t>
-  </si>
-  <si>
-    <t>Test Facility</t>
-  </si>
-  <si>
-    <t>Tank</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recommended Docs &lt;br&gt; During Authoring</t>
+    <t>Animation available through gif&lt;br /&gt; or embedded video</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>Typography</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -203,6 +187,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -227,9 +224,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -238,6 +234,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,322 +550,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="53.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5">
-        <v>5</v>
-      </c>
-      <c r="K2" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="5">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5">
-        <v>10</v>
-      </c>
-      <c r="K3" s="5">
-        <v>10</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5">
-        <v>5</v>
-      </c>
-      <c r="I4" s="5">
-        <v>3</v>
-      </c>
-      <c r="J4" s="5">
-        <v>7</v>
-      </c>
-      <c r="K4" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5">
-        <v>2</v>
-      </c>
-      <c r="J5" s="5">
-        <v>5</v>
-      </c>
-      <c r="K5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="5">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5">
-        <v>7</v>
-      </c>
-      <c r="G6" s="5">
-        <v>7</v>
-      </c>
-      <c r="H6" s="5">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5">
-        <v>6</v>
-      </c>
-      <c r="J6" s="5">
-        <v>3</v>
-      </c>
-      <c r="K6" s="5">
-        <v>7</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="5">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5">
-        <v>7</v>
-      </c>
-      <c r="H7" s="5">
-        <v>7</v>
-      </c>
-      <c r="I7" s="5">
-        <v>5</v>
-      </c>
-      <c r="J7" s="5">
-        <v>8</v>
-      </c>
-      <c r="K7" s="5">
-        <v>7</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -881,115 +603,426 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26315F2A-CDFA-0248-B9F8-35BE73DB111D}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BA7F0F-53B1-4B45-A10C-A8C90D7B9CA2}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
